--- a/21-JAN-2019/Employee_HR_details.xlsx
+++ b/21-JAN-2019/Employee_HR_details.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="14355" windowHeight="2385"/>
+    <workbookView xWindow="360" yWindow="96" windowWidth="14352" windowHeight="2388"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="129">
   <si>
     <t>MAIN TAB</t>
   </si>
@@ -255,9 +255,6 @@
     <t>Employee_Education_DTL</t>
   </si>
   <si>
-    <t>Employee_Family_DTL</t>
-  </si>
-  <si>
     <t>mother</t>
   </si>
   <si>
@@ -328,13 +325,91 @@
   </si>
   <si>
     <t>combobax from sheet 2</t>
+  </si>
+  <si>
+    <t>Employee_Family_Details</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>CREATE TABLE [dbo].[Employee_Education_DTL](</t>
+  </si>
+  <si>
+    <t>RowId int IDENTITY(1,1) NOT NULL,</t>
+  </si>
+  <si>
+    <t>varchar(50) NULL,</t>
+  </si>
+  <si>
+    <t>Employee_Edu_Id</t>
+  </si>
+  <si>
+    <t>varchar(50) NOT NULL,</t>
+  </si>
+  <si>
+    <t>Varchar (150) NULL,</t>
+  </si>
+  <si>
+    <t>varchar(150) null,</t>
+  </si>
+  <si>
+    <t>varchar(5) null,</t>
+  </si>
+  <si>
+    <t>Decimal(10,2) null,</t>
+  </si>
+  <si>
+    <t>Varchar(Max) null,</t>
+  </si>
+  <si>
+    <t>Created_By int NULL,</t>
+  </si>
+  <si>
+    <t>Created_On datetime NULL,</t>
+  </si>
+  <si>
+    <t>Modified_By int NULL,</t>
+  </si>
+  <si>
+    <t>Modified_On datetime NULL,</t>
+  </si>
+  <si>
+    <t>Is_Deleted bit NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CONSTRAINT [PK_Employee_Edu_Id] PRIMARY KEY  (RowId,Employee_Edu_Id) </t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>CREATE TABLE [dbo].[Employee_Family_Details](</t>
+  </si>
+  <si>
+    <t>Employee_fam_Id</t>
+  </si>
+  <si>
+    <t>Varchar(100) NULL,</t>
+  </si>
+  <si>
+    <t>varchar(50) null,</t>
+  </si>
+  <si>
+    <t>Datetime null,</t>
+  </si>
+  <si>
+    <t>Varchar(1) Null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CONSTRAINT [PK_Employee_fam_Id] PRIMARY KEY  (RowId,Employee_fam_Id) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -534,7 +609,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -569,7 +643,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -745,22 +818,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" customWidth="1"/>
-    <col min="2" max="2" width="63.42578125" customWidth="1"/>
-    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="2" max="2" width="63.44140625" customWidth="1"/>
+    <col min="3" max="3" width="29.44140625" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -768,7 +841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -776,27 +849,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="B5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="B6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -805,10 +878,10 @@
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
@@ -818,12 +891,12 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>20</v>
@@ -832,7 +905,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
         <v>13</v>
       </c>
@@ -846,7 +919,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
@@ -860,7 +933,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
         <v>12</v>
       </c>
@@ -874,7 +947,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
@@ -884,7 +957,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
@@ -894,7 +967,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4" t="s">
@@ -904,7 +977,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="5" t="s">
         <v>28</v>
       </c>
@@ -916,7 +989,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
@@ -930,7 +1003,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="3" t="s">
         <v>30</v>
       </c>
@@ -944,7 +1017,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
         <v>31</v>
       </c>
@@ -958,7 +1031,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
         <v>32</v>
       </c>
@@ -972,7 +1045,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
         <v>12</v>
       </c>
@@ -986,7 +1059,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
@@ -996,7 +1069,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3" t="s">
@@ -1006,7 +1079,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="5" t="s">
         <v>40</v>
       </c>
@@ -1018,7 +1091,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="2" t="s">
         <v>41</v>
       </c>
@@ -1032,7 +1105,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="2" t="s">
         <v>42</v>
       </c>
@@ -1046,7 +1119,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="2" t="s">
         <v>43</v>
       </c>
@@ -1060,7 +1133,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="2" t="s">
         <v>44</v>
       </c>
@@ -1074,7 +1147,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="2" t="s">
         <v>48</v>
       </c>
@@ -1088,7 +1161,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="2" t="s">
         <v>12</v>
       </c>
@@ -1102,7 +1175,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
@@ -1112,7 +1185,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="5" t="s">
         <v>64</v>
       </c>
@@ -1124,7 +1197,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="6" t="s">
         <v>55</v>
       </c>
@@ -1138,7 +1211,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="6" t="s">
         <v>57</v>
       </c>
@@ -1152,7 +1225,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="6" t="s">
         <v>58</v>
       </c>
@@ -1166,7 +1239,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="6" t="s">
         <v>48</v>
       </c>
@@ -1180,7 +1253,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="6" t="s">
         <v>12</v>
       </c>
@@ -1194,7 +1267,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6" t="s">
@@ -1204,7 +1277,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6" t="s">
@@ -1214,7 +1287,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="5" t="s">
         <v>65</v>
       </c>
@@ -1226,7 +1299,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" s="7" t="s">
         <v>66</v>
       </c>
@@ -1240,7 +1313,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="7" t="s">
         <v>67</v>
       </c>
@@ -1254,7 +1327,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" s="7" t="s">
         <v>43</v>
       </c>
@@ -1268,7 +1341,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" s="7" t="s">
         <v>44</v>
       </c>
@@ -1282,7 +1355,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" s="7" t="s">
         <v>68</v>
       </c>
@@ -1296,7 +1369,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" s="7" t="s">
         <v>69</v>
       </c>
@@ -1310,7 +1383,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7" t="s">
@@ -1320,7 +1393,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7" t="s">
@@ -1328,6 +1401,228 @@
       </c>
       <c r="D56" s="7" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>108</v>
+      </c>
+      <c r="B70" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>29</v>
+      </c>
+      <c r="B71" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>30</v>
+      </c>
+      <c r="B72" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>39</v>
+      </c>
+      <c r="B73" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>32</v>
+      </c>
+      <c r="B74" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="B81" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="B84" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>18</v>
+      </c>
+      <c r="B90" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>123</v>
+      </c>
+      <c r="B91" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>22</v>
+      </c>
+      <c r="B92" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>11</v>
+      </c>
+      <c r="B93" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>25</v>
+      </c>
+      <c r="B94" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>12</v>
+      </c>
+      <c r="B96" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="B102" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="B105" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1337,155 +1632,155 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" customWidth="1"/>
+    <col min="1" max="1" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="8"/>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="9"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="9"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="9"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="9"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="9" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="9" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="9" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" s="9"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" s="9"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31" s="9"/>
     </row>
   </sheetData>
@@ -1519,12 +1814,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/21-JAN-2019/Employee_HR_details.xlsx
+++ b/21-JAN-2019/Employee_HR_details.xlsx
@@ -821,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
